--- a/Data/Results/Affinity_Labels_2017.xlsx
+++ b/Data/Results/Affinity_Labels_2017.xlsx
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -819,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -907,7 +907,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -973,7 +973,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1061,7 +1061,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1105,7 +1105,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1127,7 +1127,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1160,7 +1160,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1182,7 +1182,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1226,7 +1226,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1248,7 +1248,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1303,7 +1303,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1314,7 +1314,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1413,7 +1413,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1435,7 +1435,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1457,7 +1457,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1468,7 +1468,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1545,7 +1545,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1567,7 +1567,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1633,7 +1633,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1644,7 +1644,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1875,7 +1875,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1963,7 +1963,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1985,7 +1985,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2150,7 +2150,7 @@
         <v>126</v>
       </c>
       <c r="C126">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2183,7 +2183,7 @@
         <v>129</v>
       </c>
       <c r="C129">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:3">
